--- a/medicine/Enfance/Carmen_Lyra/Carmen_Lyra.xlsx
+++ b/medicine/Enfance/Carmen_Lyra/Carmen_Lyra.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Carmen Lyra est le pseudonyme de María Isabel Carvajal Quesada, femme de lettres costaricienne née le 15 janvier 1887 ou 1888[2] à San José et morte le 14 mai 1949 à Mexico. 
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Carmen Lyra est le pseudonyme de María Isabel Carvajal Quesada, femme de lettres costaricienne née le 15 janvier 1887 ou 1888 à San José et morte le 14 mai 1949 à Mexico. 
 </t>
         </is>
       </c>
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Membre active du parti communiste mexicain, elle est l'un des premiers auteurs à critiquer la domination des compagnies bananières. 
 Professeure des écoles, elle voyage en Europe pour étudier les méthodes de Maria Montessori et fonde une école.
@@ -548,7 +562,9 @@
           <t>Œuvres</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>La niña sol, théâtre (œuvre perdue)
 Había una vez, théâtre (œuvre perdue)
